--- a/hellovickykumar123.xlsx
+++ b/hellovickykumar123.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="51">
   <si>
     <t>center_id</t>
   </si>
@@ -75,85 +75,88 @@
     <t>min_age_limit</t>
   </si>
   <si>
+    <t>allow_all_age</t>
+  </si>
+  <si>
+    <t>vaccine</t>
+  </si>
+  <si>
+    <t>slots</t>
+  </si>
+  <si>
+    <t>Tagor Hospital Mansrover</t>
+  </si>
+  <si>
+    <t>Mansarover</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>Jaipur II</t>
+  </si>
+  <si>
+    <t>Jaipur II Urban</t>
+  </si>
+  <si>
+    <t>09:30:00</t>
+  </si>
+  <si>
+    <t>12:30:00</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>23eece0b-2761-4095-b541-5a1386aa65c6</t>
+  </si>
+  <si>
+    <t>25-07-2021</t>
+  </si>
+  <si>
+    <t>780</t>
+  </si>
+  <si>
+    <t>COVISHIELD</t>
+  </si>
+  <si>
+    <t>09:30AM-11:30AM</t>
+  </si>
+  <si>
+    <t>11:30AM-12:30PM</t>
+  </si>
+  <si>
+    <t>Indus Jaipur Hospital Cvc</t>
+  </si>
+  <si>
+    <t>Mansarovar</t>
+  </si>
+  <si>
+    <t>17:00:00</t>
+  </si>
+  <si>
+    <t>171c2e95-896a-4c3a-bc46-f22403843199</t>
+  </si>
+  <si>
+    <t>09:30AM-10:30AM</t>
+  </si>
+  <si>
+    <t>10:30AM-11:30AM</t>
+  </si>
+  <si>
+    <t>12:30PM-05:00PM</t>
+  </si>
+  <si>
     <t>max_age_limit</t>
   </si>
   <si>
-    <t>vaccine</t>
-  </si>
-  <si>
-    <t>slots</t>
-  </si>
-  <si>
-    <t>Soni Hospital</t>
-  </si>
-  <si>
-    <t>Soni Hospital Jaipur</t>
-  </si>
-  <si>
-    <t>Rajasthan</t>
-  </si>
-  <si>
-    <t>Jaipur I</t>
-  </si>
-  <si>
-    <t>Jaipur I Urban</t>
-  </si>
-  <si>
-    <t>10:00:00</t>
-  </si>
-  <si>
-    <t>16:00:00</t>
-  </si>
-  <si>
-    <t>Paid</t>
-  </si>
-  <si>
-    <t>7f85aa78-d6ab-4b56-8240-39ab968629c3</t>
-  </si>
-  <si>
-    <t>02-07-2021</t>
-  </si>
-  <si>
-    <t>780</t>
-  </si>
-  <si>
-    <t>COVISHIELD</t>
-  </si>
-  <si>
-    <t>10:00AM-11:00AM</t>
-  </si>
-  <si>
-    <t>11:00AM-12:00PM</t>
-  </si>
-  <si>
-    <t>12:00PM-01:00PM</t>
-  </si>
-  <si>
-    <t>01:00PM-04:00PM</t>
-  </si>
-  <si>
-    <t>allow_all_age</t>
-  </si>
-  <si>
-    <t>Mahatma Gandhi Hos City Center</t>
-  </si>
-  <si>
-    <t>City Center Raja Park</t>
-  </si>
-  <si>
-    <t>909611ae-559e-40af-af4c-8dae27436f09</t>
-  </si>
-  <si>
-    <t>EVAA HOSPITAL</t>
-  </si>
-  <si>
-    <t>TILAK NAGAR</t>
+    <t>Saket Hospital Mansarover</t>
   </si>
   <si>
     <t>09:00:00</t>
   </si>
   <si>
-    <t>0d965fec-322f-46bd-84bd-68d028a561d5</t>
+    <t>50b6265b-dd7b-4e78-a209-2d89f8e06d93</t>
   </si>
   <si>
     <t>09:00AM-11:00AM</t>
@@ -165,7 +168,7 @@
     <t>01:00PM-03:00PM</t>
   </si>
   <si>
-    <t>03:00PM-04:00PM</t>
+    <t>03:00PM-05:00PM</t>
   </si>
 </sst>
 </file>
@@ -523,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -602,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>573160</v>
+        <v>702040</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -620,7 +623,7 @@
         <v>26</v>
       </c>
       <c r="H2">
-        <v>302004</v>
+        <v>302020</v>
       </c>
       <c r="I2" t="s">
         <v>27</v>
@@ -644,13 +647,13 @@
         <v>31</v>
       </c>
       <c r="P2">
-        <v>157</v>
+        <v>6</v>
       </c>
       <c r="Q2">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="S2" t="s">
         <v>32</v>
@@ -658,8 +661,8 @@
       <c r="T2">
         <v>18</v>
       </c>
-      <c r="U2">
-        <v>44</v>
+      <c r="U2" t="b">
+        <v>1</v>
       </c>
       <c r="V2" t="s">
         <v>33</v>
@@ -673,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>573160</v>
+        <v>702040</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -691,7 +694,7 @@
         <v>26</v>
       </c>
       <c r="H3">
-        <v>302004</v>
+        <v>302020</v>
       </c>
       <c r="I3" t="s">
         <v>27</v>
@@ -715,13 +718,13 @@
         <v>31</v>
       </c>
       <c r="P3">
-        <v>157</v>
+        <v>6</v>
       </c>
       <c r="Q3">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="S3" t="s">
         <v>32</v>
@@ -729,156 +732,14 @@
       <c r="T3">
         <v>18</v>
       </c>
-      <c r="U3">
-        <v>44</v>
+      <c r="U3" t="b">
+        <v>1</v>
       </c>
       <c r="V3" t="s">
         <v>33</v>
       </c>
       <c r="W3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>573160</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4">
-        <v>302004</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4">
-        <v>26</v>
-      </c>
-      <c r="L4">
-        <v>75</v>
-      </c>
-      <c r="M4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4">
-        <v>157</v>
-      </c>
-      <c r="Q4">
-        <v>87</v>
-      </c>
-      <c r="R4">
-        <v>70</v>
-      </c>
-      <c r="S4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4">
-        <v>18</v>
-      </c>
-      <c r="U4">
-        <v>44</v>
-      </c>
-      <c r="V4" t="s">
-        <v>33</v>
-      </c>
-      <c r="W4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>573160</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5">
-        <v>302004</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5">
-        <v>26</v>
-      </c>
-      <c r="L5">
-        <v>75</v>
-      </c>
-      <c r="M5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5">
-        <v>157</v>
-      </c>
-      <c r="Q5">
-        <v>87</v>
-      </c>
-      <c r="R5">
-        <v>70</v>
-      </c>
-      <c r="S5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5">
-        <v>18</v>
-      </c>
-      <c r="U5">
-        <v>44</v>
-      </c>
-      <c r="V5" t="s">
-        <v>33</v>
-      </c>
-      <c r="W5" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -887,6 +748,371 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>606834</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2">
+        <v>302020</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2">
+        <v>26</v>
+      </c>
+      <c r="L2">
+        <v>75</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2">
+        <v>116</v>
+      </c>
+      <c r="Q2">
+        <v>54</v>
+      </c>
+      <c r="R2">
+        <v>62</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2">
+        <v>18</v>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>606834</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3">
+        <v>302020</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3">
+        <v>26</v>
+      </c>
+      <c r="L3">
+        <v>75</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3">
+        <v>116</v>
+      </c>
+      <c r="Q3">
+        <v>54</v>
+      </c>
+      <c r="R3">
+        <v>62</v>
+      </c>
+      <c r="S3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3">
+        <v>18</v>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>606834</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <v>302020</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4">
+        <v>26</v>
+      </c>
+      <c r="L4">
+        <v>75</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4">
+        <v>116</v>
+      </c>
+      <c r="Q4">
+        <v>54</v>
+      </c>
+      <c r="R4">
+        <v>62</v>
+      </c>
+      <c r="S4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4">
+        <v>18</v>
+      </c>
+      <c r="U4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" t="s">
+        <v>33</v>
+      </c>
+      <c r="W4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>606834</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5">
+        <v>302020</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5">
+        <v>26</v>
+      </c>
+      <c r="L5">
+        <v>75</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5">
+        <v>116</v>
+      </c>
+      <c r="Q5">
+        <v>54</v>
+      </c>
+      <c r="R5">
+        <v>62</v>
+      </c>
+      <c r="S5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5">
+        <v>18</v>
+      </c>
+      <c r="U5" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X5"/>
   <sheetViews>
@@ -953,10 +1179,10 @@
         <v>18</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>20</v>
@@ -970,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>714454</v>
+        <v>725385</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
@@ -988,13 +1214,13 @@
         <v>26</v>
       </c>
       <c r="H2">
-        <v>302004</v>
+        <v>302020</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K2">
         <v>26</v>
@@ -1006,19 +1232,19 @@
         <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="O2" t="s">
         <v>31</v>
       </c>
       <c r="P2">
-        <v>237</v>
+        <v>34</v>
       </c>
       <c r="Q2">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="R2">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="S2" t="s">
         <v>32</v>
@@ -1036,7 +1262,7 @@
         <v>33</v>
       </c>
       <c r="X2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -1044,13 +1270,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>714454</v>
+        <v>725385</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
@@ -1062,13 +1288,13 @@
         <v>26</v>
       </c>
       <c r="H3">
-        <v>302004</v>
+        <v>302020</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K3">
         <v>26</v>
@@ -1080,19 +1306,19 @@
         <v>29</v>
       </c>
       <c r="N3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="O3" t="s">
         <v>31</v>
       </c>
       <c r="P3">
-        <v>237</v>
+        <v>34</v>
       </c>
       <c r="Q3">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="R3">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="S3" t="s">
         <v>32</v>
@@ -1110,7 +1336,7 @@
         <v>33</v>
       </c>
       <c r="X3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -1118,13 +1344,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>714454</v>
+        <v>725385</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
@@ -1136,13 +1362,13 @@
         <v>26</v>
       </c>
       <c r="H4">
-        <v>302004</v>
+        <v>302020</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K4">
         <v>26</v>
@@ -1154,19 +1380,19 @@
         <v>29</v>
       </c>
       <c r="N4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="O4" t="s">
         <v>31</v>
       </c>
       <c r="P4">
-        <v>237</v>
+        <v>34</v>
       </c>
       <c r="Q4">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="R4">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="S4" t="s">
         <v>32</v>
@@ -1184,7 +1410,7 @@
         <v>33</v>
       </c>
       <c r="X4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1192,13 +1418,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>714454</v>
+        <v>725385</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
@@ -1210,13 +1436,13 @@
         <v>26</v>
       </c>
       <c r="H5">
-        <v>302004</v>
+        <v>302020</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K5">
         <v>26</v>
@@ -1228,19 +1454,19 @@
         <v>29</v>
       </c>
       <c r="N5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="O5" t="s">
         <v>31</v>
       </c>
       <c r="P5">
-        <v>237</v>
+        <v>34</v>
       </c>
       <c r="Q5">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="R5">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="S5" t="s">
         <v>32</v>
@@ -1258,372 +1484,7 @@
         <v>33</v>
       </c>
       <c r="X5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:23">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>722652</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2">
-        <v>302004</v>
-      </c>
-      <c r="I2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2">
-        <v>26</v>
-      </c>
-      <c r="L2">
-        <v>75</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2">
-        <v>182</v>
-      </c>
-      <c r="Q2">
-        <v>84</v>
-      </c>
-      <c r="R2">
-        <v>98</v>
-      </c>
-      <c r="S2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2">
-        <v>18</v>
-      </c>
-      <c r="U2">
-        <v>44</v>
-      </c>
-      <c r="V2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>722652</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3">
-        <v>302004</v>
-      </c>
-      <c r="I3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3">
-        <v>26</v>
-      </c>
-      <c r="L3">
-        <v>75</v>
-      </c>
-      <c r="M3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3">
-        <v>182</v>
-      </c>
-      <c r="Q3">
-        <v>84</v>
-      </c>
-      <c r="R3">
-        <v>98</v>
-      </c>
-      <c r="S3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3">
-        <v>18</v>
-      </c>
-      <c r="U3">
-        <v>44</v>
-      </c>
-      <c r="V3" t="s">
-        <v>33</v>
-      </c>
-      <c r="W3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>722652</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4">
-        <v>302004</v>
-      </c>
-      <c r="I4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4">
-        <v>26</v>
-      </c>
-      <c r="L4">
-        <v>75</v>
-      </c>
-      <c r="M4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4">
-        <v>182</v>
-      </c>
-      <c r="Q4">
-        <v>84</v>
-      </c>
-      <c r="R4">
-        <v>98</v>
-      </c>
-      <c r="S4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4">
-        <v>18</v>
-      </c>
-      <c r="U4">
-        <v>44</v>
-      </c>
-      <c r="V4" t="s">
-        <v>33</v>
-      </c>
-      <c r="W4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>722652</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5">
-        <v>302004</v>
-      </c>
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5">
-        <v>26</v>
-      </c>
-      <c r="L5">
-        <v>75</v>
-      </c>
-      <c r="M5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5">
-        <v>182</v>
-      </c>
-      <c r="Q5">
-        <v>84</v>
-      </c>
-      <c r="R5">
-        <v>98</v>
-      </c>
-      <c r="S5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5">
-        <v>18</v>
-      </c>
-      <c r="U5">
-        <v>44</v>
-      </c>
-      <c r="V5" t="s">
-        <v>33</v>
-      </c>
-      <c r="W5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/hellovickykumar123.xlsx
+++ b/hellovickykumar123.xlsx
@@ -870,13 +870,13 @@
         <v>31</v>
       </c>
       <c r="P2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S2" t="s">
         <v>32</v>
@@ -941,13 +941,13 @@
         <v>31</v>
       </c>
       <c r="P3">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q3">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R3">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S3" t="s">
         <v>32</v>
@@ -1012,13 +1012,13 @@
         <v>31</v>
       </c>
       <c r="P4">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R4">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S4" t="s">
         <v>32</v>
@@ -1083,13 +1083,13 @@
         <v>31</v>
       </c>
       <c r="P5">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q5">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R5">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S5" t="s">
         <v>32</v>
@@ -1238,13 +1238,13 @@
         <v>31</v>
       </c>
       <c r="P2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S2" t="s">
         <v>32</v>
@@ -1312,13 +1312,13 @@
         <v>31</v>
       </c>
       <c r="P3">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S3" t="s">
         <v>32</v>
@@ -1386,13 +1386,13 @@
         <v>31</v>
       </c>
       <c r="P4">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S4" t="s">
         <v>32</v>
@@ -1460,13 +1460,13 @@
         <v>31</v>
       </c>
       <c r="P5">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S5" t="s">
         <v>32</v>

--- a/hellovickykumar123.xlsx
+++ b/hellovickykumar123.xlsx
@@ -647,13 +647,13 @@
         <v>31</v>
       </c>
       <c r="P2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
       <c r="R2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S2" t="s">
         <v>32</v>
@@ -718,13 +718,13 @@
         <v>31</v>
       </c>
       <c r="P3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S3" t="s">
         <v>32</v>
@@ -870,13 +870,13 @@
         <v>31</v>
       </c>
       <c r="P2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S2" t="s">
         <v>32</v>
@@ -941,13 +941,13 @@
         <v>31</v>
       </c>
       <c r="P3">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R3">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S3" t="s">
         <v>32</v>
@@ -1012,13 +1012,13 @@
         <v>31</v>
       </c>
       <c r="P4">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S4" t="s">
         <v>32</v>
@@ -1083,13 +1083,13 @@
         <v>31</v>
       </c>
       <c r="P5">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q5">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R5">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S5" t="s">
         <v>32</v>
